--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>456610.6553666897</v>
+        <v>454172.1822669429</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>298.9787503760129</v>
       </c>
       <c r="F2" t="n">
-        <v>185.3583983976559</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>193.0439640562728</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>73.93889741296161</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>183.6590177802442</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>267.8635071306609</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>95.28662560877994</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>323.663725047623</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>109.0074487674102</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>122.4424591077296</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329281</v>
       </c>
       <c r="F8" t="n">
-        <v>40.32753059712314</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0.6293919502451462</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>71.92708888544243</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819412</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>40.57972681914814</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699804</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>24.83266606353065</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520957</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>78.91051008677915</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833657</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2530,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>146.7151441592111</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365927</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>40.96105405076429</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2121.412239336535</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1752.449722396123</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D2" t="n">
-        <v>1394.184023789373</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="E2" t="n">
-        <v>1008.395771191129</v>
+        <v>261.5060195193277</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>261.5060195193277</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>261.5060195193277</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3250.920066646583</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3250.920066646583</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3250.920066646583</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3250.920066646583</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2898.151411376469</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2898.151411376469</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2508.012079400657</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031474</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.46409084602</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1362.84706459768</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1073.429894560719</v>
+        <v>609.6550370402499</v>
       </c>
       <c r="X4" t="n">
-        <v>845.4403436627018</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.6654861422326</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1672.191441142817</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C5" t="n">
-        <v>1672.191441142817</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1148.098121342611</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1148.098121342611</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649823</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379709</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118629</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1672.191441142817</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="6">
@@ -4638,25 +4638,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>796.8106393615039</v>
+        <v>528.555433640143</v>
       </c>
       <c r="C7" t="n">
-        <v>627.8744564335971</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1024.800190259521</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1024.800190259521</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>796.8106393615039</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>796.8106393615039</v>
+        <v>528.555433640143</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943746</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943746</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D8" t="n">
-        <v>950.104597336996</v>
+        <v>953.6440892486878</v>
       </c>
       <c r="E8" t="n">
-        <v>564.3163447387517</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943746</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.1346335501037</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>67.1478658768755</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>67.1478658768755</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.843444452132</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1161.426274415171</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>933.436723517154</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y10" t="n">
-        <v>860.7830983803434</v>
+        <v>396.7094242895083</v>
       </c>
     </row>
     <row r="11">
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>991.7436897307778</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>822.8075068028709</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>672.6908673905351</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5276,22 +5276,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E16" t="n">
-        <v>432.9862109052757</v>
+        <v>197.0043242297703</v>
       </c>
       <c r="F16" t="n">
-        <v>286.0962634073653</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>118.9001641222453</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474262</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>94.65038286230612</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5917,43 +5917,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,10 +5981,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.800778399827</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.800778399827</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.800778399827</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1057.955258982919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>889.0190760550122</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>738.9024366426764</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>590.9893430602833</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>444.0993955623729</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>276.9032962772529</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>135.191465119451</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7655,10 +7655,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>82.95161969624888</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>35.24886437521424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>105.854235827421</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.26526345295039</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.2652634529508</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>115.4620467826932</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>139.469330230033</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>138.4949402405091</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393227</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>40.30478226780124</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393204</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>962746.6197922811</v>
+        <v>962746.6197922808</v>
       </c>
     </row>
     <row r="3">
@@ -26314,7 +26314,7 @@
         <v>354580.0968631198</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="D2" t="n">
         <v>389994.8406855344</v>
@@ -26323,13 +26323,13 @@
         <v>383394.634852753</v>
       </c>
       <c r="F2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="G2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.6348527532</v>
+        <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
         <v>383394.634852753</v>
@@ -26341,19 +26341,19 @@
         <v>383394.6348527529</v>
       </c>
       <c r="L2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="M2" t="n">
         <v>383394.6348527529</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="O2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="P2" t="n">
         <v>383394.634852753</v>
-      </c>
-      <c r="N2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48409.12727549203</v>
+        <v>48409.12727549195</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815717</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26436,7 +26436,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26448,7 +26448,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1130507.716701358</v>
+        <v>-1130694.110089897</v>
       </c>
       <c r="C6" t="n">
-        <v>191096.8891359839</v>
+        <v>191096.889135984</v>
       </c>
       <c r="D6" t="n">
-        <v>191096.8891359841</v>
+        <v>191096.889135984</v>
       </c>
       <c r="E6" t="n">
-        <v>-54917.33299531513</v>
+        <v>-54952.07092075095</v>
       </c>
       <c r="F6" t="n">
-        <v>270495.1288120401</v>
+        <v>270460.3908866046</v>
       </c>
       <c r="G6" t="n">
-        <v>270495.12881204</v>
+        <v>270460.3908866043</v>
       </c>
       <c r="H6" t="n">
-        <v>270495.1288120403</v>
+        <v>270460.3908866043</v>
       </c>
       <c r="I6" t="n">
-        <v>270495.12881204</v>
+        <v>270460.3908866043</v>
       </c>
       <c r="J6" t="n">
-        <v>52963.92641476258</v>
+        <v>52929.18848932683</v>
       </c>
       <c r="K6" t="n">
-        <v>270495.12881204</v>
+        <v>270460.3908866043</v>
       </c>
       <c r="L6" t="n">
-        <v>270495.1288120398</v>
+        <v>270460.3908866044</v>
       </c>
       <c r="M6" t="n">
-        <v>185440.1008765283</v>
+        <v>185405.3629510925</v>
       </c>
       <c r="N6" t="n">
-        <v>270495.1288120399</v>
+        <v>270460.3908866043</v>
       </c>
       <c r="O6" t="n">
-        <v>270495.12881204</v>
+        <v>270460.3908866043</v>
       </c>
       <c r="P6" t="n">
-        <v>270495.1288120401</v>
+        <v>270460.3908866044</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>221.5176473440555</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>101.5638003310477</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>68.4786255435838</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>18.65949120593012</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>259.396416011903</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>83.21232069408848</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>143.1301945564178</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>96.14219424436517</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>257.6521825393337</v>
       </c>
       <c r="F8" t="n">
-        <v>366.5485151445883</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.3964163087831</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>146.6575644666524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28810,10 +28810,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,10 +32081,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32570,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32792,25 +32792,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,31 +33257,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,16 +33521,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,13 +34454,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,10 +35729,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36218,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,13 +38102,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
